--- a/biology/Médecine/Paul-Gabriel_Le_Preux/Paul-Gabriel_Le_Preux.xlsx
+++ b/biology/Médecine/Paul-Gabriel_Le_Preux/Paul-Gabriel_Le_Preux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul-Gabriel Le Preux, né le 28 février 1739 à Paris[1] ou il est mort le 19 mai 1816[2], était un médecin, écrivain et poète français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul-Gabriel Le Preux, né le 28 février 1739 à Paris ou il est mort le 19 mai 1816, était un médecin, écrivain et poète français.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Preux soutient une thèse sur la question « L'esprit animal jouit-il comme le sang d'un mouvement de circulation? » en 1764[3]. Il est reçu docteur régent de la Faculté de médecine de Paris en 1766. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Preux soutient une thèse sur la question « L'esprit animal jouit-il comme le sang d'un mouvement de circulation? » en 1764. Il est reçu docteur régent de la Faculté de médecine de Paris en 1766. 
 En 1770 et 1771, il publie deux lettres dans lesquelles il prend la défense d'Antoine Petit contre Michel-Philippe Bouvart dans la Querelle sur les naissances tardives. 
 En 1775 il prononce le discours de rentrée de la Faculté.
-« L'orateur en parlant des avantages ou des inconvénients de l'âge avancé et de l'espérance que conçoit sa compagnie d'obtenir un jour, des bienfaits de Sa Majesté, un emplacement convenable à l'utilité de ses fonctions, a trouvé moyen d'insérer avec adresse l'éloge de presque tous les ministres, et celui d'un homme parvenu, sans place, à une considération que les grandes places ne donnent pas toujours, de M. de Voltaire. Il a parlé aussi de l'inoculation, et de l'exemple donné par la Faculté royale, en faveur de cette méthode. L'éloquence de ce discours, et la belle latinité de l'auteur, ont réuni les suffrages d'une assemblée nombreuse[4]. »
+« L'orateur en parlant des avantages ou des inconvénients de l'âge avancé et de l'espérance que conçoit sa compagnie d'obtenir un jour, des bienfaits de Sa Majesté, un emplacement convenable à l'utilité de ses fonctions, a trouvé moyen d'insérer avec adresse l'éloge de presque tous les ministres, et celui d'un homme parvenu, sans place, à une considération que les grandes places ne donnent pas toujours, de M. de Voltaire. Il a parlé aussi de l'inoculation, et de l'exemple donné par la Faculté royale, en faveur de cette méthode. L'éloquence de ce discours, et la belle latinité de l'auteur, ont réuni les suffrages d'une assemblée nombreuse. »
 Le Preux est désigné professeur à la Faculté de médecine de Paris en 1777-1778. Il prononce l'éloge du botaniste Bernard de Jussieu le 5 octobre 1778. Il présente l’ouvrage de son élève Clément Joseph Tissot à la Faculté.
-Il est nommé premier médecin de l'armée de l'Intérieur en 1792 et membre du Conseil de santé militaire en 1794. En 1796, il dirige brièvement le Journal des Défenseurs de la patrie[5]. Il collabore au Journal de médecine. Il a rédigé, avec Charles-Louis-François Andry, dix-neuf articles sur la médecine dans l'Encyclopédie d'Yverdon, dont Acrimonie dans les humeurs, Acrisie, Bradupepsie, Chartre et Chaudepisse[6]. Le Preux et Andry ont également signé les articles Acrisie et Apoplexie du Supplément à l'Encyclopédie.
+Il est nommé premier médecin de l'armée de l'Intérieur en 1792 et membre du Conseil de santé militaire en 1794. En 1796, il dirige brièvement le Journal des Défenseurs de la patrie. Il collabore au Journal de médecine. Il a rédigé, avec Charles-Louis-François Andry, dix-neuf articles sur la médecine dans l'Encyclopédie d'Yverdon, dont Acrimonie dans les humeurs, Acrisie, Bradupepsie, Chartre et Chaudepisse. Le Preux et Andry ont également signé les articles Acrisie et Apoplexie du Supplément à l'Encyclopédie.
 Le médecin Jean-Nicolas Corvisart lui dédie sa traduction des Aphorismes sur la connaissance et la curation des fièvres (Paris, 1797) de Boerhaave publiés par Maximilian Stoll.
-Sous l’Empire, Le Preux fut médecin consultant de Napoléon et médecin en chef de l’Hôtel-Dieu. Il est fait chevalier de la Légion d'honneur le 14 mars 1806[7]. Selon Achille Chéreau, « Lepreux s'est fait le chantre officiel de Napoléon le Grand et des hauts faits de son règne »[8]. 
+Sous l’Empire, Le Preux fut médecin consultant de Napoléon et médecin en chef de l’Hôtel-Dieu. Il est fait chevalier de la Légion d'honneur le 14 mars 1806. Selon Achille Chéreau, « Lepreux s'est fait le chantre officiel de Napoléon le Grand et des hauts faits de son règne ». 
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">An spiritus animalio, ut et sanguis, motu gaudeat circulatorio ? (Paris, 1764)
 An convulsionibus recens natorum vomitoria ? (Paris, 1765)
@@ -564,7 +580,7 @@
 « Éloge de Monsieur Jussieu », Observations sur la physique, sur l'histoire naturelle et sur les arts, t.15 (janvier 1780), p.3-16. Lire en ligne
 Discours prononcé, le 14 juin 1793, l'an 2.e de la République, une et indivisible, dans l'église cathédrale et paroissiale de Soissons, au milieu des funérailles du citoyen Couillerot, médecin de l'hôpital militaire, par son confrère Lepreux, médecin en chef de l'armée de réserve, et du camp de Péronne ; en présence des corps civils et militaire de la ville, et soldats convalescents (Soissons, 1793)
 Liberté, égalité, fraternité. Soissons, 9 ventôse, 2e année de la république française, une et indivisible. Lepreux,... au citoyen Robespierre, représentant [au sujet d'un décret ordonnant que tous les officiers de santé employés à l'armée soient soumis à des examens] (1794). Lire en ligne
-À Monsieur Manuel, procureur de la Commune [au sujet du paiement de la patente. Du 14 mai 1792] (An 4 [1795])
+À Monsieur Manuel, procureur de la Commune [au sujet du paiement de la patente. Du 14 mai 1792] (An 4 )
 Discours prononcé, au nom des médecins de l'Hôtel-Dieu, à l'occasion de la pose de la première pierre du portique de cet hôpital, le 1er vendémiaire, an XII [24 septembre 1803] (Paris, 1803)
 [Discours et vers présentés par M. Le Preux au pape Pie VII lors de sa réception chez le cardinal Du Belloy, le 25 décembre 1804]
 Discours et vers présentés au Pape dans l'Hôtel-Dieu, par M. Le Preux... au nom des médecins de l'hôpital (12 janvier 1805)
@@ -582,7 +598,7 @@
 [Réponse de P.-G. Le Preux à une critique, signée : Caius, et parue dans le Mercure du mois de mai 1811, concernant l'emploi qu'il avait fait du mot « vectigal » dans un poème latin.]
 Memoriae Jacobi Delille (1813)
 Audit vota Deus, pièce de vers latins adressée à Napoléon et Marie-Louise (14 août 1813)
-Les Mémoires secrets lui attribuent L'Art ïatrique (Amiens, 1776)[9], également attribué à Louis-Henri Bourdelin[10].
+Les Mémoires secrets lui attribuent L'Art ïatrique (Amiens, 1776), également attribué à Louis-Henri Bourdelin.
 </t>
         </is>
       </c>
@@ -611,7 +627,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Achille Chéreau, Le Parnasse médical français : ou dictionnaire des médecins-poètes de la France (Paris, 1874), p.324-325.
 Commentaires de la Faculté de Médecine de Paris, 1777 à 1786, t. 1, Paris, G. Steinheil, 1903, p. 147.
